--- a/research/CFA/Factors.xlsx
+++ b/research/CFA/Factors.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nogur\Documents\DeppClinic\research\CFA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCDA5AA-F975-468D-BD3B-83F4AC1076FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681B2D78-4DBD-4EF7-A777-7CB6DACE84F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{48598312-B358-4D21-B3E9-C62FC7039293}"/>
   </bookViews>
@@ -715,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BFECA8-CAF5-45F5-AFE5-D43D0957F94C}">
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1247,7 +1247,7 @@
         <v>66</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>48</v>
@@ -1265,18 +1265,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
     <mergeCell ref="A37:A38"/>
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="A39:A40"/>
@@ -1289,6 +1277,18 @@
     <mergeCell ref="B43:B44"/>
     <mergeCell ref="A45:A46"/>
     <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
